--- a/GeneradorHorarios/Plantillas/PlantillaHorario.xlsx
+++ b/GeneradorHorarios/Plantillas/PlantillaHorario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\source\repos\GeneradorHorarios\GeneradorHorarios\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C802AF38-16FF-49C5-A356-53F11B917702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE380FE4-E3EB-4625-9379-219366AFF46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -805,14 +805,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1029,104 +1027,55 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1141,60 +1090,112 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1202,12 +1203,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1907,7 +1906,7 @@
   <dimension ref="A1:Z247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1984,25 +1983,25 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -2014,25 +2013,25 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2044,25 +2043,25 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -2074,25 +2073,25 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="125"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="142"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -2108,61 +2107,61 @@
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="108"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="108"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="119"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="120" t="s">
+      <c r="J7" s="137"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="108"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="121" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="121" t="s">
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="99"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="121"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -2174,23 +2173,23 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="21" customHeight="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="102"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="123"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -2202,29 +2201,29 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="127" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="127" t="s">
+      <c r="H10" s="97"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="105"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="108"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="95"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -2240,25 +2239,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="10" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="131" t="s">
+      <c r="I11" s="124"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="108"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="95"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2270,35 +2269,35 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="132" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="133" t="s">
+      <c r="D12" s="121"/>
+      <c r="E12" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="121" t="s">
+      <c r="F12" s="102"/>
+      <c r="G12" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="110" t="s">
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="103" t="s">
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="99"/>
+      <c r="Q12" s="121"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -2310,33 +2309,33 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="95" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="134" t="s">
+      <c r="D13" s="132"/>
+      <c r="E13" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="135" t="s">
+      <c r="F13" s="100"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="136" t="s">
+      <c r="M13" s="132"/>
+      <c r="N13" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="102"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="123"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -2348,27 +2347,27 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="137" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="111"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="12" t="s">
+      <c r="M14" s="94"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="R14" s="4"/>
@@ -2382,23 +2381,23 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -2410,25 +2409,25 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A16" s="100"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="107" t="s">
+      <c r="A16" s="148"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -2440,23 +2439,23 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -2468,23 +2467,23 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -2501,9 +2500,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2524,25 +2523,25 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="114"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="145"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2554,43 +2553,43 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="116" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="111"/>
-      <c r="K21" s="115" t="s">
+      <c r="J21" s="94"/>
+      <c r="K21" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="20" t="s">
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="R21" s="1"/>
@@ -2607,22 +2606,22 @@
       <c r="A22" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="26"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="24"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2637,22 +2636,22 @@
       <c r="A23" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="26"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="24"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2667,22 +2666,22 @@
       <c r="A24" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="26"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="24"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2697,22 +2696,22 @@
       <c r="A25" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="26"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="24"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2727,22 +2726,22 @@
       <c r="A26" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="26"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="24"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2757,22 +2756,22 @@
       <c r="A27" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="26"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="24"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2784,25 +2783,25 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="26"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="24"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -2814,25 +2813,25 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="21" customHeight="1">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="26"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="24"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -2844,25 +2843,25 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="24" customHeight="1">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="26"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="24"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -2874,23 +2873,23 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="26"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="24"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -2902,25 +2901,25 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="53"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="51"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2932,24 +2931,24 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="108"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="53"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="95"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="51"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -2961,27 +2960,27 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="138" t="s">
+      <c r="B34" s="48"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="108"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="95"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3003,13 +3002,13 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="139"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="108"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="95"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3021,27 +3020,27 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A36" s="141" t="s">
+      <c r="A36" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="140" t="s">
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3053,27 +3052,27 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="143" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3085,23 +3084,23 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="61"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="59"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3113,23 +3112,23 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A39" s="144"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="61"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="59"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3141,23 +3140,23 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A40" s="145"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="61"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="59"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3169,23 +3168,23 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A41" s="146"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="61"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="59"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3197,12 +3196,12 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A42" s="131" t="s">
+      <c r="A42" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="108"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="108"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3213,7 +3212,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-      <c r="O42" s="62"/>
+      <c r="O42" s="60"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="1"/>
@@ -3227,12 +3226,12 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A43" s="131" t="s">
+      <c r="A43" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="108"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="95"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3257,10 +3256,10 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -3285,23 +3284,23 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A45" s="149"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -3313,31 +3312,31 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="150" t="s">
+      <c r="F46" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="151" t="s">
+      <c r="K46" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="151" t="s">
+      <c r="O46" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -3349,28 +3348,28 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A47" s="147" t="s">
+      <c r="A47" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="147" t="s">
+      <c r="F47" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="152" t="s">
+      <c r="K47" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="65" t="s">
+      <c r="P47" s="63" t="s">
         <v>69</v>
       </c>
       <c r="Q47" s="4"/>
@@ -8986,11 +8985,79 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="A14:B18"/>
+    <mergeCell ref="C14:D18"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:K18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="A8:G9"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L8:Q9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="K32:N32"/>
     <mergeCell ref="K33:N33"/>
@@ -9007,79 +9074,11 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:Q37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="A8:G9"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L8:Q9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="G14:K18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B18"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K46:M46"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.13" top="0.12" bottom="0.12" header="0" footer="0"/>
   <pageSetup scale="67" orientation="landscape"/>
@@ -9170,25 +9169,25 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -9200,25 +9199,25 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -9230,25 +9229,25 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -9260,25 +9259,25 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="125"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="142"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -9294,33 +9293,33 @@
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="164" t="s">
+      <c r="G7" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="108"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="164" t="s">
+      <c r="J7" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="120" t="s">
+      <c r="K7" s="94"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="108"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -9332,29 +9331,29 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="159" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="121" t="s">
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="99"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="121"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -9366,23 +9365,23 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="21" customHeight="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="102"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="123"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -9394,35 +9393,35 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="126" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="127" t="s">
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="165" t="s">
+      <c r="H10" s="97"/>
+      <c r="I10" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="127" t="s">
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="105"/>
-      <c r="N10" s="129">
+      <c r="M10" s="97"/>
+      <c r="N10" s="136">
         <v>3790298</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="108"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="95"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -9438,31 +9437,31 @@
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="126" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="10" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="130" t="s">
+      <c r="I11" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="131" t="s">
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="110">
+      <c r="O11" s="94"/>
+      <c r="P11" s="119">
         <v>31031</v>
       </c>
-      <c r="Q11" s="108"/>
+      <c r="Q11" s="95"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -9474,35 +9473,35 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="132" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="133" t="s">
+      <c r="D12" s="121"/>
+      <c r="E12" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="121" t="s">
+      <c r="F12" s="102"/>
+      <c r="G12" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="110" t="s">
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="103" t="s">
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="99"/>
+      <c r="Q12" s="121"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -9514,33 +9513,33 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="95" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="134" t="s">
+      <c r="D13" s="132"/>
+      <c r="E13" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="135" t="s">
+      <c r="F13" s="100"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="136" t="s">
+      <c r="M13" s="132"/>
+      <c r="N13" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="102"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="123"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -9552,35 +9551,35 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="160" t="s">
+      <c r="B14" s="121"/>
+      <c r="C14" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="103">
+      <c r="D14" s="121"/>
+      <c r="E14" s="120">
         <v>40</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="161" t="s">
+      <c r="F14" s="102"/>
+      <c r="G14" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="137" t="s">
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="111"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="12" t="s">
+      <c r="M14" s="94"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="R14" s="4"/>
@@ -9594,25 +9593,25 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="14" t="s">
+      <c r="A15" s="148"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="15"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -9624,25 +9623,25 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A16" s="100"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="107" t="s">
+      <c r="A16" s="148"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -9654,25 +9653,25 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="109">
+      <c r="A17" s="148"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="149">
         <v>10</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -9684,23 +9683,23 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -9717,9 +9716,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -9740,25 +9739,25 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="114"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="145"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -9770,43 +9769,43 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="116" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="111"/>
-      <c r="K21" s="115" t="s">
+      <c r="J21" s="94"/>
+      <c r="K21" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="20" t="s">
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="R21" s="1"/>
@@ -9823,36 +9822,36 @@
       <c r="A22" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="95"/>
+      <c r="C22" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84">
+      <c r="H22" s="81"/>
+      <c r="I22" s="82">
         <v>3</v>
       </c>
-      <c r="J22" s="85"/>
-      <c r="K22" s="162" t="s">
+      <c r="J22" s="83"/>
+      <c r="K22" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="22" t="s">
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="24">
         <v>11</v>
       </c>
-      <c r="Q22" s="67">
+      <c r="Q22" s="65">
         <v>2</v>
       </c>
       <c r="R22" s="1"/>
@@ -9869,36 +9868,36 @@
       <c r="A23" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="82"/>
-      <c r="I23" s="22">
+      <c r="H23" s="80"/>
+      <c r="I23" s="20">
         <v>3</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="162" t="s">
+      <c r="J23" s="84"/>
+      <c r="K23" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="22" t="s">
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="24">
         <v>12</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="65">
         <v>2</v>
       </c>
       <c r="R23" s="1"/>
@@ -9915,32 +9914,32 @@
       <c r="A24" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="22" t="s">
+      <c r="B24" s="94"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="22">
+      <c r="E24" s="24"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="20">
         <v>1</v>
       </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="162" t="s">
+      <c r="J24" s="30"/>
+      <c r="K24" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="22" t="s">
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="24">
         <v>13</v>
       </c>
-      <c r="Q24" s="67">
+      <c r="Q24" s="65">
         <v>8</v>
       </c>
       <c r="R24" s="1"/>
@@ -9957,32 +9956,32 @@
       <c r="A25" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="22" t="s">
+      <c r="B25" s="95"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="38">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="36">
         <v>1</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="162" t="s">
+      <c r="J25" s="30"/>
+      <c r="K25" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="22" t="s">
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="24">
         <v>14</v>
       </c>
-      <c r="Q25" s="67">
+      <c r="Q25" s="65">
         <v>8</v>
       </c>
       <c r="R25" s="1"/>
@@ -9999,28 +9998,28 @@
       <c r="A26" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="22" t="s">
+      <c r="B26" s="94"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="22">
+      <c r="G26" s="20"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="20">
         <v>2</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="81"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="79"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -10035,32 +10034,32 @@
       <c r="A27" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="22" t="s">
+      <c r="B27" s="94"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="22">
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="20">
         <v>3</v>
       </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="138" t="s">
+      <c r="J27" s="36"/>
+      <c r="K27" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="80"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="78"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -10072,35 +10071,35 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="95"/>
+      <c r="C28" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="89"/>
+      <c r="F28" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="22">
+      <c r="H28" s="66"/>
+      <c r="I28" s="20">
         <v>4</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="71"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="69"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -10112,35 +10111,35 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="21" customHeight="1">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="95"/>
+      <c r="C29" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="37">
+      <c r="H29" s="68"/>
+      <c r="I29" s="35">
         <v>3</v>
       </c>
-      <c r="J29" s="41"/>
-      <c r="K29" s="130" t="s">
+      <c r="J29" s="39"/>
+      <c r="K29" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="108"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -10152,39 +10151,39 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="24" customHeight="1">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="72">
+      <c r="B30" s="94"/>
+      <c r="C30" s="70">
         <v>4</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="70">
         <v>4</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="70">
         <v>4</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="70">
         <v>4</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="70">
         <v>4</v>
       </c>
-      <c r="H30" s="73"/>
-      <c r="I30" s="26">
+      <c r="H30" s="71"/>
+      <c r="I30" s="24">
         <v>20</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="154" t="s">
+      <c r="J30" s="20"/>
+      <c r="K30" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="108"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -10196,23 +10195,23 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="155"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -10224,37 +10223,37 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="46">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="46">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="46">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="46">
         <v>0.29166666666666669</v>
       </c>
-      <c r="H32" s="92"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="156" t="s">
+      <c r="H32" s="90"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="99"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="121"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -10266,35 +10265,35 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46">
         <v>0.625</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="46">
         <v>0.625</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="46">
         <v>0.625</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="46">
         <v>0.625</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="46">
         <v>0.625</v>
       </c>
-      <c r="H33" s="93"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="132"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -10306,37 +10305,37 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="58" t="s">
+      <c r="B34" s="48"/>
+      <c r="C34" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="94"/>
-      <c r="I34" s="107">
+      <c r="H34" s="92"/>
+      <c r="I34" s="109">
         <v>40</v>
       </c>
-      <c r="J34" s="108"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="102"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="123"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -10376,25 +10375,25 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="114"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="145"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -10406,27 +10405,27 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="108"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="95"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -10438,27 +10437,27 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A38" s="115">
+      <c r="A38" s="108">
         <v>5</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="74" t="s">
+      <c r="B38" s="95"/>
+      <c r="C38" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="76"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="74"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -10470,27 +10469,27 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A39" s="115">
+      <c r="A39" s="108">
         <v>5</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="74" t="s">
+      <c r="B39" s="95"/>
+      <c r="C39" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="76"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="74"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -10502,27 +10501,27 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A40" s="146">
+      <c r="A40" s="103">
         <v>5</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="74" t="s">
+      <c r="B40" s="95"/>
+      <c r="C40" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="76"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="74"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -10534,27 +10533,27 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A41" s="146">
+      <c r="A41" s="103">
         <v>3</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="77" t="s">
+      <c r="B41" s="95"/>
+      <c r="C41" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="79"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="77"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -10566,27 +10565,27 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A42" s="146">
+      <c r="A42" s="103">
         <v>2</v>
       </c>
-      <c r="B42" s="108"/>
-      <c r="C42" s="74" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="76"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="74"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -10598,14 +10597,14 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A43" s="131" t="s">
+      <c r="A43" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="157">
+      <c r="B43" s="95"/>
+      <c r="C43" s="158">
         <v>20</v>
       </c>
-      <c r="D43" s="108"/>
+      <c r="D43" s="95"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -10630,14 +10629,14 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="115">
+      <c r="B44" s="95"/>
+      <c r="C44" s="108">
         <v>40</v>
       </c>
-      <c r="D44" s="108"/>
+      <c r="D44" s="95"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -10662,10 +10661,10 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -10690,23 +10689,23 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A46" s="149"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -10718,31 +10717,31 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A47" s="153" t="s">
+      <c r="A47" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="150" t="s">
+      <c r="F47" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="151" t="s">
+      <c r="K47" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="151" t="s">
+      <c r="O47" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="P47" s="104"/>
-      <c r="Q47" s="104"/>
+      <c r="P47" s="102"/>
+      <c r="Q47" s="102"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -10754,28 +10753,28 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A48" s="147" t="s">
+      <c r="A48" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="147" t="s">
+      <c r="F48" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="152" t="s">
+      <c r="K48" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="65" t="s">
+      <c r="P48" s="63" t="s">
         <v>69</v>
       </c>
       <c r="Q48" s="4"/>
@@ -16391,82 +16390,6 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C37:Q37"/>
-    <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="K32:Q34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:F9"/>
-    <mergeCell ref="G8:K9"/>
-    <mergeCell ref="L8:Q9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B18"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
@@ -16482,6 +16405,82 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="L15:O15"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B18"/>
+    <mergeCell ref="C14:D18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:F9"/>
+    <mergeCell ref="G8:K9"/>
+    <mergeCell ref="L8:Q9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="C37:Q37"/>
+    <mergeCell ref="A36:Q36"/>
+    <mergeCell ref="K32:Q34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A31:Q31"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.13" top="0.12" bottom="0.12" header="0" footer="0"/>
   <pageSetup scale="67" orientation="landscape"/>
